--- a/PTBR/Lang/PTBR/Dialog/Drama/elder_exile.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/elder_exile.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC3BEECD-EBED-45BD-8D04-09D449C77464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507AD8FC-5F62-476C-B3A1-C15B7CCBCF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="1350" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raphael" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr xmlns:loext="http://schemas.libreoffice.org/" stringRefSyntax="CalcA1"/>
     </ext>
@@ -764,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L8" sqref="L8"/>
       <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
